--- a/Clientes/UNIR/Alumnos.xlsx
+++ b/Clientes/UNIR/Alumnos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ed\Documents\GitHub\InteractSolutions\Clientes\UNIR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10968B30-4BC6-4884-9EBF-22A339C75BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3535CC54-A05C-4C01-B914-8D1701D0D320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8B3A6288-E634-4DB7-9EDA-66B0EA37B6FC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Estefania</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Ejercicio 4</t>
+  </si>
+  <si>
+    <t>Ejercicio 5</t>
+  </si>
+  <si>
+    <t>Ejercicio 6</t>
   </si>
 </sst>
 </file>
@@ -87,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -110,11 +116,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -122,6 +152,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,15 +473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C76E4AE-CB68-40B1-A6E2-B2DCA360338A}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>5</v>
@@ -455,11 +492,17 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +518,12 @@
       <c r="E2" s="1">
         <v>8</v>
       </c>
+      <c r="F2" s="5">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -492,8 +539,12 @@
       <c r="E3" s="1">
         <v>8</v>
       </c>
+      <c r="F3" s="5">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -507,6 +558,8 @@
         <v>9</v>
       </c>
       <c r="E4" s="1"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Clientes/UNIR/Alumnos.xlsx
+++ b/Clientes/UNIR/Alumnos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ed\Documents\GitHub\InteractSolutions\Clientes\UNIR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3535CC54-A05C-4C01-B914-8D1701D0D320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D49441F-82DA-4DA6-A1ED-441DB2BF4D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8B3A6288-E634-4DB7-9EDA-66B0EA37B6FC}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +521,9 @@
       <c r="F2" s="5">
         <v>10</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="5">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -542,7 +544,9 @@
       <c r="F3" s="5">
         <v>6</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -557,9 +561,15 @@
       <c r="D4" s="1">
         <v>9</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
